--- a/Original/Tables/NewTU_Units_ORG.xlsx
+++ b/Original/Tables/NewTU_Units_ORG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -5338,11 +5338,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22850,8 +22850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
@@ -49482,7 +49482,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Original/Tables/NewTU_Units_ORG.xlsx
+++ b/Original/Tables/NewTU_Units_ORG.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10852" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10855" uniqueCount="1388">
   <si>
     <t>ID</t>
   </si>
@@ -5339,10 +5339,10 @@
   <dimension ref="A1:CV150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C151" sqref="C151"/>
+      <selection pane="bottomRight" activeCell="CF8" sqref="CF8:CF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6296,8 +6296,8 @@
       <c r="CC8" s="161">
         <v>3</v>
       </c>
-      <c r="CF8" s="161">
-        <v>1</v>
+      <c r="CF8" s="161" t="s">
+        <v>1187</v>
       </c>
       <c r="CP8" s="162" t="s">
         <v>1087</v>
@@ -6400,8 +6400,8 @@
       <c r="CC9" s="161">
         <v>3</v>
       </c>
-      <c r="CF9" s="161">
-        <v>1</v>
+      <c r="CF9" s="161" t="s">
+        <v>1187</v>
       </c>
       <c r="CP9" s="162" t="s">
         <v>1095</v>
@@ -18755,8 +18755,8 @@
       <c r="CC126" s="96">
         <v>2</v>
       </c>
-      <c r="CF126" s="96">
-        <v>1</v>
+      <c r="CF126" s="96" t="s">
+        <v>1187</v>
       </c>
       <c r="CP126" s="97" t="s">
         <v>357</v>

--- a/Original/Tables/NewTU_Units_ORG.xlsx
+++ b/Original/Tables/NewTU_Units_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -23005,7 +23005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -30349,10 +30349,10 @@
   <dimension ref="A1:AM150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50459,11 +50459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AG141" sqref="AG141:AG142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56513,10 +56513,10 @@
       <c r="AC141" s="245"/>
       <c r="AD141" s="243"/>
       <c r="AE141" s="244"/>
-      <c r="AF141" s="244"/>
-      <c r="AG141" s="244" t="s">
+      <c r="AF141" s="244" t="s">
         <v>1196</v>
       </c>
+      <c r="AG141" s="244"/>
       <c r="AH141" s="244"/>
       <c r="AI141" s="244"/>
       <c r="AJ141" s="245"/>
@@ -56557,10 +56557,10 @@
       <c r="AC142" s="245"/>
       <c r="AD142" s="243"/>
       <c r="AE142" s="244"/>
-      <c r="AF142" s="244"/>
-      <c r="AG142" s="244" t="s">
+      <c r="AF142" s="244" t="s">
         <v>1196</v>
       </c>
+      <c r="AG142" s="244"/>
       <c r="AH142" s="244"/>
       <c r="AI142" s="244"/>
       <c r="AJ142" s="245"/>
